--- a/Requisitos/Requisitos e Descrição dos Casos de Uso.xlsx
+++ b/Requisitos/Requisitos e Descrição dos Casos de Uso.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Educação\Christus\2014.2\APIS\git\SisMed\Requisitos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="9285" activeTab="1"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
   <si>
     <t>REQ</t>
   </si>
@@ -225,13 +230,16 @@
   </si>
   <si>
     <t>Alterar Dados do Usuario</t>
+  </si>
+  <si>
+    <t>Se a validação do usuário é feita em OUTRO sistema, então não seria um caso de uso DESTE sistema</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +279,11 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -345,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -369,6 +382,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,6 +394,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -426,7 +445,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -461,7 +480,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -673,10 +692,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -902,6 +921,11 @@
       </c>
       <c r="D16" s="2" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Requisitos/Requisitos e Descrição dos Casos de Uso.xlsx
+++ b/Requisitos/Requisitos e Descrição dos Casos de Uso.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Educação\Christus\2014.2\APIS\git\SisMed\Requisitos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="9285" activeTab="1"/>
   </bookViews>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="66">
   <si>
     <t>REQ</t>
   </si>
@@ -55,9 +50,6 @@
     <t>RE03</t>
   </si>
   <si>
-    <t>Validar usuário</t>
-  </si>
-  <si>
     <t>SISTEMA</t>
   </si>
   <si>
@@ -115,18 +107,12 @@
     <t>DIRETOR</t>
   </si>
   <si>
-    <t> RE10</t>
-  </si>
-  <si>
     <t>O recepcionista poderá fazer marcação, desmarcação, listagem de consultas</t>
   </si>
   <si>
     <t>Manter consulta</t>
   </si>
   <si>
-    <t> RE11</t>
-  </si>
-  <si>
     <t>O recepcionista irá manter os pacientes.</t>
   </si>
   <si>
@@ -190,21 +176,12 @@
     <t>UC11</t>
   </si>
   <si>
-    <t>Validar usuário verificando em outro sistema se o funcionário é médico ou recepcionista.</t>
-  </si>
-  <si>
-    <t> RE13</t>
-  </si>
-  <si>
     <t>O médico poderá criar e alterar prontuário de um paciente.</t>
   </si>
   <si>
     <t>Manter prontuário</t>
   </si>
   <si>
-    <t>RE14</t>
-  </si>
-  <si>
     <t>O médico poderá solicitar exames.</t>
   </si>
   <si>
@@ -214,9 +191,6 @@
     <t>UC12</t>
   </si>
   <si>
-    <t>UC13</t>
-  </si>
-  <si>
     <t>O sistema será web e irá rodar na intranet.</t>
   </si>
   <si>
@@ -232,7 +206,13 @@
     <t>Alterar Dados do Usuario</t>
   </si>
   <si>
-    <t>Se a validação do usuário é feita em OUTRO sistema, então não seria um caso de uso DESTE sistema</t>
+    <t>RE10</t>
+  </si>
+  <si>
+    <t>RE11</t>
+  </si>
+  <si>
+    <t>RE13</t>
   </si>
 </sst>
 </file>
@@ -370,6 +350,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -381,9 +364,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,7 +425,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -480,7 +460,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -692,10 +672,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -706,12 +686,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="A1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -732,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -760,102 +740,102 @@
         <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>32</v>
@@ -864,69 +844,53 @@
         <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
-        <v>70</v>
-      </c>
+    </row>
+    <row r="17" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -942,10 +906,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -955,15 +919,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -974,7 +938,7 @@
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
@@ -985,145 +949,134 @@
     </row>
     <row r="4" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Requisitos/Requisitos e Descrição dos Casos de Uso.xlsx
+++ b/Requisitos/Requisitos e Descrição dos Casos de Uso.xlsx
@@ -38,9 +38,6 @@
     <t>RE02</t>
   </si>
   <si>
-    <t>O usuário necessita se cadastrar para utilizar o sistema.</t>
-  </si>
-  <si>
     <t>Registrar Usuário</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>RE04</t>
   </si>
   <si>
-    <t>Enviar e-mail para o usuário contendo link para ativação do usuário</t>
-  </si>
-  <si>
     <t>Enviar e-mail de ativação</t>
   </si>
   <si>
@@ -107,21 +101,12 @@
     <t>DIRETOR</t>
   </si>
   <si>
-    <t>O recepcionista poderá fazer marcação, desmarcação, listagem de consultas</t>
-  </si>
-  <si>
     <t>Manter consulta</t>
   </si>
   <si>
-    <t>O recepcionista irá manter os pacientes.</t>
-  </si>
-  <si>
     <t>Manter paciente</t>
   </si>
   <si>
-    <t>RECEPCIONISTA</t>
-  </si>
-  <si>
     <t>RE12</t>
   </si>
   <si>
@@ -131,9 +116,6 @@
     <t>Manter consulta de encaixe</t>
   </si>
   <si>
-    <t>MEDICO</t>
-  </si>
-  <si>
     <t>REQUISITOS DO SISTEMA</t>
   </si>
   <si>
@@ -213,6 +195,24 @@
   </si>
   <si>
     <t>RE13</t>
+  </si>
+  <si>
+    <t>MEDICO/RECEPCIONISTA/DIRETOR</t>
+  </si>
+  <si>
+    <t>RECEPCIONISTA/MEDICO/DIRETOR</t>
+  </si>
+  <si>
+    <t>O diretor irá cadastrar o usuário no sistema.</t>
+  </si>
+  <si>
+    <t>Enviar e-mail para o usuário contendo link de ativação.</t>
+  </si>
+  <si>
+    <t>O usuário poderá fazer marcação, desmarcação, listagem de consultas, reagendamento</t>
+  </si>
+  <si>
+    <t>O usuário irá manter os pacientes.</t>
   </si>
 </sst>
 </file>
@@ -675,19 +675,19 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="82" customWidth="1"/>
     <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="43" customWidth="1"/>
+    <col min="4" max="4" width="48.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -712,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -726,167 +726,167 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15" x14ac:dyDescent="0.25">
@@ -909,13 +909,13 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="42.5703125" customWidth="1"/>
+    <col min="3" max="3" width="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -927,7 +927,7 @@
     </row>
     <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -938,134 +938,134 @@
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
